--- a/Excel/StartConfig/Release/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartMachineConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898D366-6BF6-4041-9606-E86D7B3DCCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A834D3-4838-4E0B-9E34-7EF734B3625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="855" windowWidth="25845" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>20200</v>
+        <v>20301</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Release/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartMachineConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A834D3-4838-4E0B-9E34-7EF734B3625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B8B3FA-908F-4181-AFDC-275295F8C2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>20301</v>
+        <v>20201</v>
       </c>
     </row>
   </sheetData>
